--- a/data/REQ_MVD_document_input_request.xlsx
+++ b/data/REQ_MVD_document_input_request.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -474,14 +474,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>111111, г. Чунеома, ул. Взбободы, д. 29</t>
+          <t>Волгоградская обл. , г. Волжский, ул. Набережная, д.5, 404130</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>МОтд МВД России «Чухломское»</t>
+          <t>УМВД России по г. Волжскому</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -520,14 +520,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Зайчиков А.Н</t>
+          <t>Н.С. Чвапвапав</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -543,14 +543,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Начальник</t>
+          <t>Старший следователь</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -607,7 +607,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -642,14 +642,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11111111111111</t>
+          <t>1111111111111</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -668,7 +668,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -684,14 +684,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -767,7 +767,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -824,7 +824,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -843,7 +843,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -881,7 +881,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -919,7 +919,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -938,7 +938,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -952,16 +952,12 @@
 </t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -980,7 +976,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -999,7 +995,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1013,12 +1009,16 @@
 </t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1079,7 +1079,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1131,12 +1131,16 @@
 </t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1155,7 +1159,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1169,12 +1173,16 @@
 </t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1193,7 +1201,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1212,7 +1220,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1231,7 +1239,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1250,7 +1258,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1269,7 +1277,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1288,7 +1296,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1307,7 +1315,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1326,7 +1334,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1345,7 +1353,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1359,16 +1367,12 @@
 </t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1111111111111111111</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1387,7 +1391,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1406,7 +1410,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1420,12 +1424,16 @@
 </t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1444,7 +1452,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1463,7 +1471,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1482,7 +1490,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1496,12 +1504,16 @@
 </t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1520,7 +1532,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1539,7 +1551,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1558,7 +1570,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1572,12 +1584,16 @@
 </t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1596,7 +1612,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1615,7 +1631,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1634,7 +1650,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1653,7 +1669,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1672,7 +1688,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1686,16 +1702,12 @@
 </t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1714,7 +1726,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1733,7 +1745,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1752,7 +1764,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1771,7 +1783,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1790,7 +1802,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1809,7 +1821,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1828,7 +1840,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1847,7 +1859,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1866,7 +1878,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1885,7 +1897,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1904,7 +1916,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1923,7 +1935,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1942,7 +1954,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1956,16 +1968,12 @@
 </t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1979,16 +1987,12 @@
 </t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2007,7 +2011,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2026,7 +2030,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2045,7 +2049,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2064,7 +2068,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2083,7 +2087,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2102,7 +2106,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2121,7 +2125,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2140,7 +2144,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2159,7 +2163,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2178,7 +2182,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2197,7 +2201,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2216,7 +2220,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2235,7 +2239,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2254,7 +2258,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2273,7 +2277,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2292,7 +2296,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2311,7 +2315,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2330,7 +2334,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2349,7 +2353,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2367,7 +2371,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2386,7 +2390,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2405,7 +2409,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2424,7 +2428,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2443,7 +2447,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2462,7 +2466,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2481,7 +2485,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2500,7 +2504,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2519,7 +2523,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2533,16 +2537,12 @@
 </t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>1975-11-04</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2561,7 +2561,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2580,7 +2580,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2599,7 +2599,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2675,7 +2675,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2694,7 +2694,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2713,7 +2713,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2732,7 +2732,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2751,7 +2751,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2770,7 +2770,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2789,7 +2789,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2808,7 +2808,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2827,7 +2827,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2841,16 +2841,12 @@
 </t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Любовой Любовь Николаевне</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2869,7 +2865,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>774014/506</t>
+          <t>346589</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2884,6 +2880,4806 @@
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>applicant_foiv_address</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кто запрашивает - ФОИВ - Адрес
+</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>ул. Фокина, д. 45, г. Брянск, 241050</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>applicant_foiv_name</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кто запрашивает - ФОИВ - Наименование
+</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>СОВЕТСКИЙ районный суд г. Брянска</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>applicant_signer_name</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кто запрашивает - Подписант - ФИО
+</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Советского</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>applicant_signer_position</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кто запрашивает - Подписант - Должность
+</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Судья</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>basis_arbitration_case_value</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Арбитражное дело - Номер арбитражного дела
+</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>basis_civil_case_value</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Гражданское дело - Номер гражданского дела
+</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2-374/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>basis_claim_value</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Претензия/жалоба - Номер претензии/жалобы
+</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>basis_court_order_value</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Постановление суда - Номер постановления суда
+</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>basis_criminal_case_value</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Уголовное дело - Номер уголовного дела
+</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>basis_custom_offence_value</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Административное правонарушение - Номер дела об АП
+</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>basis_date_court_act</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Дата основания запроса
+</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>basis_inforcement_proceeding_value</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Исполнительное производство - Номер исполнительного производства
+</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>basis_inheritance_case_value</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Наследственное дело - Номер наследственного дела
+</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>basis_legal_clause_lc_a15_notary</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Статьи - ст. 15 "О нотариате"
+</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>basis_legal_clause_lc_a23_fz173</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Статьи - ст. 23 (173-ФЗ)
+</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>basis_legal_clause_lc_fz311</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Статьи - 311-ФЗ
+</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>basis_position_value</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Должность - Название должности
+</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>basis_preliminary_inquiry_value</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Материал проверки - Номер материала проверки
+</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>document_anticorr</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Документ - Антикоррупционный
+</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>document_repeatedly</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Документ - Повторно
+</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>product_account_attr_account_balance_cert</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Справки (сведения) об остатках - Справки (сведения) об остатках
+</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>product_account_attr_account_control_person</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные о лицах имеющих право распоряжения по счетам
+</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>product_account_attr_account_file</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Досье по счету/карте (копии документов)
+</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>product_account_attr_atm_data</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по банкоматам/терминалам - Данные по банкоматам/терминалам
+</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>product_account_attr_bank_statement</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Выписки - Выписки
+</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>product_account_attr_bank_statement_balance</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Выписка с текущим остатком - Выписка с текущим остатком
+</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>product_account_attr_blocking_data</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по арестам/блокировкам - Данные по арестам/блокировкам
+</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>product_account_attr_client_pers_data</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Анкетные данные владельца счета
+</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>product_account_attr_exist_account_card_cert</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Сведения о наличии счетов и банковских карт - Сведения о наличии счетов и банковских карт (справки)
+</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>product_account_attr_file</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Картотека - Картотека
+</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>product_account_attr_gis_gmp_payment_confirm</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по УИП (ГИС ГМП) - подтверждение платежа - Данные по УИП (ГИС ГМП) - подтверждение платежа
+</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>product_account_attr_internet_transfer_data</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по интернет переводам - Данные по интернет переводам
+</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>product_account_attr_kop_stamp_pers_data</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные о лицах, указанных в КОП и оттисков печати - Данные о лицах, указанных в КОП и оттисков печати
+</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>product_account_attr_opened_account_dept_data</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные о наименовании/адресе ТП, где открыт счет
+</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>product_account_attr_opened_account_pers_data</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные о лицах, открывших счета - Данные о лицах, открывших счета
+</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>product_account_attr_payment_document</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Платежные документы - Платежные документы
+</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>product_account_attr_phone_to_account_info</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Сведения о подключении телефона к счетам/картам клиента из запроса - Сведения о подключении телефона к счетам/картам клиента из запроса
+</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>product_account_attr_phones_data</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по сотовым телефонам - Данные по сотовым телефонам
+</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>product_account_attr_photo_video_atm</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Фото/видео из устройств самообслуживания - Фото/видео из устройств самообслуживания
+</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>product_account_attr_power_of_attorney_copy</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Копии доверенностей - Копии доверенностей
+</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>product_account_attr_recipient_account_info</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по счетам/банковским картам получателей - Данные по счетам/банковским картам получателей
+</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>product_account_attr_recipient_account_operations_info</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по счетам/банковским картам получателя перевода и операции по ним - Данные по счетам/банковским картам получателя перевода и операции по ним
+</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>product_account_attr_recipient_pers_data</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Анкетные данные получателя перевода - Анкетные данные получателя перевода
+</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>product_account_attr_sender_account_info</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по счетам/банковским картам отправителей - Данные по счетам/банковским картам отправителей
+</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>product_account_attr_transaction_data</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Сведения по транзакциям - Сведения по транзакциям
+</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>product_account_number</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Значения продукта - Номер счета
+</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>product_bank_guarantees_attr_bank_guarantees_data</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Банковские гарантии - Атрибуты продукта - Данные по банковским гарантиям - Данные по банковским гарантиям
+</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>product_bank_guarantees_attr_contract_file</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Банковские гарантии - Атрибуты продукта - Досье по договорам (продуктовое досье) - Досье по договорам (продуктовое досье)
+</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>product_card_attr_account_balance_cert</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Справки (сведения) об остатках - Справки (сведения) об остатках
+</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>product_card_attr_account_file</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Досье по счету/карте (копии документов)
+</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>product_card_attr_atm_data</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные по банкоматам/терминалам - Данные по банкоматам/терминалам
+</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>product_card_attr_bank_statement</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Выписки - Выписки
+</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>product_card_attr_client_pers_data</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Анкетные данные владельца счета
+</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>product_card_attr_exist_account_card_cert</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Сведения о наличии счетов и банковских карт - Сведения о наличии счетов и банковских карт (справки)
+</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>product_card_attr_file</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Картотека - Картотека
+</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>product_card_attr_number</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Значения продукта - Номер карты
+</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>product_card_attr_opened_account_dept_data</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные о наименовании/адресе ТП, где открыт счет
+</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>product_card_attr_opened_account_pers_data</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные о лицах, открывших счета - Данные о лицах, открывших счета
+</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>product_card_attr_phone_to_account_info</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Сведения о подключении телефона к счетам/картам клиента из запроса - Сведения о подключении телефона к счетам/картам клиента из запроса
+</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>product_card_attr_photo_video_atm</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Фото/видео из устройств самообслуживания - Фото/видео из устройств самообслуживания
+</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>product_card_attr_photo_video_office</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Фото/видео из отделений Банка - Фото/видео из отделений Банка
+</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>product_card_attr_recipient_account_info</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные по счетам/банковским картам получателей - Данные по счетам/банковским картам получателей
+</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>product_card_attr_recipient_account_operations_info</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные по счетам/банковским картам получателя перевода и операции по ним - Данные по счетам/банковским картам получателя перевода и операции по ним
+</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>product_card_attr_recipient_pers_data</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Анкетные данные получателя перевода - Анкетные данные получателя перевода
+</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>product_card_attr_sender_account_info</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные по счетам/банковским картам отправителей - Данные по счетам/банковским картам получателей/отправителей
+</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>product_credit_attr_bank_statement</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Выписки - Выписки
+</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>product_credit_attr_contract_file</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Досье по договорам (продуктовое досье) - Досье по договорам (продуктовое досье)
+</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>product_credit_attr_credit_contract_data</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Данные по кредитным договорам - Данные по кредитным договорам
+</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>product_credit_attr_credit_debt_balance</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Данные по остатку долга по кредиту - Данные по остатку долга по кредиту
+</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>product_credit_attr_credit_paid_out_percent</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Данные по уплаченным процентам по кредиту - Данные по уплаченным процентам по кредиту
+</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>product_credit_attr_debt_credit_calc</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Расчет задолженности по Кредитным договорам - Расчет задолженности по Кредитным договорам
+</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>product_credit_attr_loan_debt_cert</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Справка о ссудной задолженности - Справка о ссудной задолженности
+</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>product_credit_letter_attr_credit_letter_data</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Аккредитив - Атрибуты продукта - Данные по аккредитивам - Данные по аккредитивам
+</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>product_dbo_attr_client_mobile_dbo</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ДБО - Атрибуты продукта - Информация о подключении услуги Мобильный банк (к какому номеру подключена система "Клиет-банк")
+</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>product_dbo_attr_dbo_connected_pers_data</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ДБО - Атрибуты продукта - Данные о лицах подключивших ДБО - Данные о лицах, подключивших ДБО
+</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>product_dbo_attr_dbo_document_copy</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ДБО - Атрибуты продукта - Копии документов по ДБО (акты, сертификаты ключей) - Копии документов по ДБО (акты, сертификаты ключей)
+</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>product_dbo_attr_ip_address</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ДБО - Атрибуты продукта - IP адреса/Log файлы - IP адреса/Log файлы
+</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>product_dbo_attr_used_ip_address_pers_data</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ДБО - Атрибуты продукта - Данные о лицах использовавших ip-адреса - Данные о лицах использовавших ip-адреса
+</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>product_encashment_attr_encashment_contract_copy</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Инкассация - Атрибуты продукта - Данные по договору инкассации (копии документов) - Данные по договору инкассации (копии документов)
+</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>product_ibs_attr_contract_file</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ИБС - Атрибуты продукта - Досье по договорам (продуктовое досье) - Досье по договорам (продуктовое досье)
+</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>product_ibs_attr_ibs_data</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ИБС - Атрибуты продукта - Данные по ИБС (ячейкам) - Данные по ИБС (ячейкам)
+</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>product_insurance_attr_contract_file</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Страховка - Атрибуты продукта - Досье по договорам (продуктовое досье) - Досье по договорам (продуктовое досье)
+</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>product_investment_attr_account_balance_cert</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Справки (сведения) об остатках - Справки (сведения) об остатках
+</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>product_investment_attr_account_file</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Досье по счету/карте (копии документов)
+</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>product_investment_attr_bank_statement</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Выписки - Выписки,
+</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>product_investment_attr_client_pers_data</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Анкетные данные владельца счета
+</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>product_investment_attr_deposit_paid_out_percent</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Данные по уплаченным процентам по вкладу (депозиту)
+</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>product_investment_attr_exist_account_card_cert</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Сведения о наличии счетов и банковских карт - Сведения о наличии счетов и банковских карт (справки)
+</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>product_investment_attr_file</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Картотека - Картотека
+</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>product_investment_attr_opened_account_dept_data</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Данные о наименовании/адресе ТП, где открыт счет
+</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>product_investment_attr_opened_account_pers_data</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Данные о лицах, открывших счета - Данные о лицах, открывших счета
+</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>product_investment_attr_phone_to_account_info</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Сведения о подключении телефона к счетам/картам клиента из запроса - Сведения о подключении телефона к счетам/картам клиента из запроса
+</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>product_investment_attr_photo_video_office</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Фото/видео из отделений Банка - Фото/видео из отделений Банка
+</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>product_investment_attr_power_of_attorney_copy</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Копии доверенностей - Копии доверенностей
+</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>product_oms_attr_oms_account_data</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ОМС - Атрибуты продукта - Данные по счетам ОМС (покупка драг.металов) - Данные по счетам ОМС (покупка драг.металов)
+</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>product_promissory_note_attr_promissory_note_data</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вексель - Атрибуты продукта - Данные по векселям - Данные по векселям
+</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>product_saving_certificate_attr_saving_certificate_data</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Сберегательный сертификат - Атрибуты продукта - Сведения о сберегательных сертификатах - Сведения о сберегательных сертификатах
+</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>product_securities_attr_securities_data</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Продукты запроса - Ценные бумаги - Атрибуты продукта - Данные по ценным бумагам - Данные по ценным бумагам</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>target_company_factadress</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - Фактический адрес
+</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>target_company_kpp</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - КПП
+</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>target_company_name</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - Наименование
+</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>target_company_ogrn</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - ОГРН
+</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>target_company_phones</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - Телефонные номера
+</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>target_company_regadress</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - Адрес регистрации
+</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>target_company_taxpayer_number</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - ИНН
+</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>target_individual_birth_place</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Место рождения
+</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>target_individual_date_of_birth</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Дата рождения
+</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>target_individual_death_date</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Дата смерти
+</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>target_individual_dul_date</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 1_Дата выдачи
+</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>target_individual_dul_issue_code</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 2_Код подразделения
+</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>target_individual_dul_org</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 5_Орган выдачи
+</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>target_individual_dul_type</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 6_Тип
+</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_date_of_birth</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - Дата рождения
+</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_factadress</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - Фактический адрес
+</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_inn</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - ИНН
+</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_name</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - ФИО
+</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_phones</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - Телефонные номера
+</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_regadress</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - Адрес регистрации
+</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>target_individual_fact_address</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Фактический адрес
+</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>target_individual_identitydocument_number</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 4_Номер
+</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>target_individual_identitydocument_series</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 3_Серия
+</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>target_individual_inn</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - ИНН
+</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>target_individual_name</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - ФИО
+</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>target_individual_phones</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Телефонные номера
+</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>774009/761</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>target_individual_reg_address</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Адрес регистрации
+</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>applicant_foiv_address</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кто запрашивает - ФОИВ - Адрес
+</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>173003, Великий Новгород, ул. Кооперативная, Эа</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>applicant_foiv_name</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кто запрашивает - ФОИВ - Наименование
+</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>СУ</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>applicant_signer_name</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кто запрашивает - Подписант - ФИО
+</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Шываываыва А.В</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>applicant_signer_position</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кто запрашивает - Подписант - Должность
+</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Следователь</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>basis_arbitration_case_value</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Арбитражное дело - Номер арбитражного дела
+</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>basis_civil_case_value</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Гражданское дело - Номер гражданского дела
+</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>basis_claim_value</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Претензия/жалоба - Номер претензии/жалобы
+</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>basis_court_order_value</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Постановление суда - Номер постановления суда
+</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>basis_criminal_case_value</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Уголовное дело - Номер уголовного дела
+</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>11111111111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>basis_custom_offence_value</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Административное правонарушение - Номер дела об АП
+</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>basis_date_court_act</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Дата основания запроса
+</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>basis_inforcement_proceeding_value</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Исполнительное производство - Номер исполнительного производства
+</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>basis_inheritance_case_value</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Наследственное дело - Номер наследственного дела
+</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>basis_legal_clause_lc_a15_notary</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Статьи - ст. 15 "О нотариате"
+</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>basis_legal_clause_lc_a23_fz173</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Статьи - ст. 23 (173-ФЗ)
+</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>basis_legal_clause_lc_fz311</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Статьи - 311-ФЗ
+</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>basis_position_value</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Должность - Название должности
+</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>basis_preliminary_inquiry_value</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основание для запроса - Материал проверки - Номер материала проверки
+</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>document_anticorr</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Документ - Антикоррупционный
+</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>document_repeatedly</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Документ - Повторно
+</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>product_account_attr_account_balance_cert</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Справки (сведения) об остатках - Справки (сведения) об остатках
+</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>product_account_attr_account_control_person</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные о лицах имеющих право распоряжения по счетам
+</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>product_account_attr_account_file</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Досье по счету/карте (копии документов)
+</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>product_account_attr_atm_data</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по банкоматам/терминалам - Данные по банкоматам/терминалам
+</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>product_account_attr_bank_statement</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Выписки - Выписки
+</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>product_account_attr_bank_statement_balance</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Выписка с текущим остатком - Выписка с текущим остатком
+</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>product_account_attr_blocking_data</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по арестам/блокировкам - Данные по арестам/блокировкам
+</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>product_account_attr_client_pers_data</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Анкетные данные владельца счета
+</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>product_account_attr_exist_account_card_cert</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Сведения о наличии счетов и банковских карт - Сведения о наличии счетов и банковских карт (справки)
+</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>product_account_attr_file</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Картотека - Картотека
+</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>product_account_attr_gis_gmp_payment_confirm</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по УИП (ГИС ГМП) - подтверждение платежа - Данные по УИП (ГИС ГМП) - подтверждение платежа
+</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>product_account_attr_internet_transfer_data</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по интернет переводам - Данные по интернет переводам
+</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>product_account_attr_kop_stamp_pers_data</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные о лицах, указанных в КОП и оттисков печати - Данные о лицах, указанных в КОП и оттисков печати
+</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>product_account_attr_opened_account_dept_data</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные о наименовании/адресе ТП, где открыт счет
+</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>product_account_attr_opened_account_pers_data</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные о лицах, открывших счета - Данные о лицах, открывших счета
+</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>product_account_attr_payment_document</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Платежные документы - Платежные документы
+</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>product_account_attr_phone_to_account_info</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Сведения о подключении телефона к счетам/картам клиента из запроса - Сведения о подключении телефона к счетам/картам клиента из запроса
+</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>product_account_attr_phones_data</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по сотовым телефонам - Данные по сотовым телефонам
+</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>product_account_attr_photo_video_atm</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Фото/видео из устройств самообслуживания - Фото/видео из устройств самообслуживания
+</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>product_account_attr_power_of_attorney_copy</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Копии доверенностей - Копии доверенностей
+</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>product_account_attr_recipient_account_info</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по счетам/банковским картам получателей - Данные по счетам/банковским картам получателей
+</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>product_account_attr_recipient_account_operations_info</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по счетам/банковским картам получателя перевода и операции по ним - Данные по счетам/банковским картам получателя перевода и операции по ним
+</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>product_account_attr_recipient_pers_data</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Анкетные данные получателя перевода - Анкетные данные получателя перевода
+</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>product_account_attr_sender_account_info</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Данные по счетам/банковским картам отправителей - Данные по счетам/банковским картам отправителей
+</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>product_account_attr_transaction_data</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Атрибуты продукта - Сведения по транзакциям - Сведения по транзакциям
+</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>product_account_number</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Счет - Значения продукта - Номер счета
+</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>product_bank_guarantees_attr_bank_guarantees_data</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Банковские гарантии - Атрибуты продукта - Данные по банковским гарантиям - Данные по банковским гарантиям
+</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>product_bank_guarantees_attr_contract_file</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Банковские гарантии - Атрибуты продукта - Досье по договорам (продуктовое досье) - Досье по договорам (продуктовое досье)
+</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>product_card_attr_account_balance_cert</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Справки (сведения) об остатках - Справки (сведения) об остатках
+</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>product_card_attr_account_file</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Досье по счету/карте (копии документов)
+</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>product_card_attr_atm_data</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные по банкоматам/терминалам - Данные по банкоматам/терминалам
+</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>product_card_attr_bank_statement</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Выписки - Выписки
+</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>product_card_attr_client_pers_data</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Анкетные данные владельца счета
+</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>product_card_attr_exist_account_card_cert</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Сведения о наличии счетов и банковских карт - Сведения о наличии счетов и банковских карт (справки)
+</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>product_card_attr_file</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Картотека - Картотека
+</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>product_card_attr_number</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Значения продукта - Номер карты
+</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>product_card_attr_opened_account_dept_data</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные о наименовании/адресе ТП, где открыт счет
+</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>product_card_attr_opened_account_pers_data</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные о лицах, открывших счета - Данные о лицах, открывших счета
+</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>product_card_attr_phone_to_account_info</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Сведения о подключении телефона к счетам/картам клиента из запроса - Сведения о подключении телефона к счетам/картам клиента из запроса
+</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>product_card_attr_photo_video_atm</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Фото/видео из устройств самообслуживания - Фото/видео из устройств самообслуживания
+</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>product_card_attr_photo_video_office</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Фото/видео из отделений Банка - Фото/видео из отделений Банка
+</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>product_card_attr_recipient_account_info</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные по счетам/банковским картам получателей - Данные по счетам/банковским картам получателей
+</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>product_card_attr_recipient_account_operations_info</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные по счетам/банковским картам получателя перевода и операции по ним - Данные по счетам/банковским картам получателя перевода и операции по ним
+</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>product_card_attr_recipient_pers_data</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Анкетные данные получателя перевода - Анкетные данные получателя перевода
+</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>product_card_attr_sender_account_info</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Карта - Атрибуты продукта - Данные по счетам/банковским картам отправителей - Данные по счетам/банковским картам получателей/отправителей
+</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>product_credit_attr_bank_statement</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Выписки - Выписки
+</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>product_credit_attr_contract_file</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Досье по договорам (продуктовое досье) - Досье по договорам (продуктовое досье)
+</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>product_credit_attr_credit_contract_data</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Данные по кредитным договорам - Данные по кредитным договорам
+</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>product_credit_attr_credit_debt_balance</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Данные по остатку долга по кредиту - Данные по остатку долга по кредиту
+</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>product_credit_attr_credit_paid_out_percent</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Данные по уплаченным процентам по кредиту - Данные по уплаченным процентам по кредиту
+</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>product_credit_attr_debt_credit_calc</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Расчет задолженности по Кредитным договорам - Расчет задолженности по Кредитным договорам
+</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>product_credit_attr_loan_debt_cert</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Кредит - Атрибуты продукта - Справка о ссудной задолженности - Справка о ссудной задолженности
+</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>product_credit_letter_attr_credit_letter_data</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Аккредитив - Атрибуты продукта - Данные по аккредитивам - Данные по аккредитивам
+</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>product_dbo_attr_client_mobile_dbo</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ДБО - Атрибуты продукта - Информация о подключении услуги Мобильный банк (к какому номеру подключена система "Клиет-банк")
+</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>product_dbo_attr_dbo_connected_pers_data</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ДБО - Атрибуты продукта - Данные о лицах подключивших ДБО - Данные о лицах, подключивших ДБО
+</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>product_dbo_attr_dbo_document_copy</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ДБО - Атрибуты продукта - Копии документов по ДБО (акты, сертификаты ключей) - Копии документов по ДБО (акты, сертификаты ключей)
+</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>product_dbo_attr_ip_address</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ДБО - Атрибуты продукта - IP адреса/Log файлы - IP адреса/Log файлы
+</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>product_dbo_attr_used_ip_address_pers_data</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ДБО - Атрибуты продукта - Данные о лицах использовавших ip-адреса - Данные о лицах использовавших ip-адреса
+</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>product_encashment_attr_encashment_contract_copy</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Инкассация - Атрибуты продукта - Данные по договору инкассации (копии документов) - Данные по договору инкассации (копии документов)
+</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>product_ibs_attr_contract_file</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ИБС - Атрибуты продукта - Досье по договорам (продуктовое досье) - Досье по договорам (продуктовое досье)
+</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>product_ibs_attr_ibs_data</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ИБС - Атрибуты продукта - Данные по ИБС (ячейкам) - Данные по ИБС (ячейкам)
+</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>product_insurance_attr_contract_file</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Страховка - Атрибуты продукта - Досье по договорам (продуктовое досье) - Досье по договорам (продуктовое досье)
+</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>product_investment_attr_account_balance_cert</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Справки (сведения) об остатках - Справки (сведения) об остатках
+</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>product_investment_attr_account_file</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Досье по счету/карте (копии документов)
+</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>product_investment_attr_bank_statement</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Выписки - Выписки,
+</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>product_investment_attr_client_pers_data</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Анкетные данные владельца счета
+</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>product_investment_attr_deposit_paid_out_percent</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Данные по уплаченным процентам по вкладу (депозиту)
+</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>product_investment_attr_exist_account_card_cert</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Сведения о наличии счетов и банковских карт - Сведения о наличии счетов и банковских карт (справки)
+</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>product_investment_attr_file</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Картотека - Картотека
+</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>product_investment_attr_opened_account_dept_data</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Данные о наименовании/адресе ТП, где открыт счет
+</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>product_investment_attr_opened_account_pers_data</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Данные о лицах, открывших счета - Данные о лицах, открывших счета
+</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>product_investment_attr_phone_to_account_info</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Сведения о подключении телефона к счетам/картам клиента из запроса - Сведения о подключении телефона к счетам/картам клиента из запроса
+</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>product_investment_attr_photo_video_office</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Фото/видео из отделений Банка - Фото/видео из отделений Банка
+</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>product_investment_attr_power_of_attorney_copy</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вклад - Атрибуты продукта - Копии доверенностей - Копии доверенностей
+</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>product_oms_attr_oms_account_data</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - ОМС - Атрибуты продукта - Данные по счетам ОМС (покупка драг.металов) - Данные по счетам ОМС (покупка драг.металов)
+</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>product_promissory_note_attr_promissory_note_data</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Вексель - Атрибуты продукта - Данные по векселям - Данные по векселям
+</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>product_saving_certificate_attr_saving_certificate_data</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продукты запроса - Сберегательный сертификат - Атрибуты продукта - Сведения о сберегательных сертификатах - Сведения о сберегательных сертификатах
+</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>product_securities_attr_securities_data</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Продукты запроса - Ценные бумаги - Атрибуты продукта - Данные по ценным бумагам - Данные по ценным бумагам</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>target_company_factadress</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - Фактический адрес
+</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>target_company_kpp</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - КПП
+</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>target_company_name</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - Наименование
+</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>target_company_ogrn</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - ОГРН
+</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>target_company_phones</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - Телефонные номера
+</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>target_company_regadress</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - Адрес регистрации
+</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>target_company_taxpayer_number</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ЮЛ - ИНН
+</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>target_individual_birth_place</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Место рождения
+</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>target_individual_date_of_birth</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Дата рождения
+</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>target_individual_death_date</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Дата смерти
+</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>target_individual_dul_date</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 1_Дата выдачи
+</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>target_individual_dul_issue_code</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 2_Код подразделения
+</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>target_individual_dul_org</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 5_Орган выдачи
+</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>target_individual_dul_type</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 6_Тип
+</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_date_of_birth</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - Дата рождения
+</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_factadress</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - Фактический адрес
+</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_inn</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - ИНН
+</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_name</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - ФИО
+</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_phones</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - Телефонные номера
+</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>target_individual_entrepreneur_regadress</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ИП - Адрес регистрации
+</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>target_individual_fact_address</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Фактический адрес
+</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>target_individual_identitydocument_number</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 4_Номер
+</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>target_individual_identitydocument_series</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Идентификационный документ - 3_Серия
+</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>target_individual_inn</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - ИНН
+</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>target_individual_name</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - ФИО
+</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>target_individual_phones</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Телефонные номера
+</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>778087/100</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>target_individual_reg_address</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Объект запроса - ФЛ - Адрес регистрации
+</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
